--- a/WIP/Systemtest/APH.xlsx
+++ b/WIP/Systemtest/APH.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="19140" windowHeight="8590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="19140" windowHeight="8590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="hop 10-11" sheetId="3" r:id="rId3"/>
+    <sheet name="Notication" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>Bước 1</t>
   </si>
@@ -145,13 +146,124 @@
   </si>
   <si>
     <t>lưu thông tin sale của HĐ đó là ai</t>
+  </si>
+  <si>
+    <t>quản lý tỷ lệ bán hàng theo HĐ</t>
+  </si>
+  <si>
+    <t>từng shipment: có thanh tỷ lệ ban dc bn %</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Người cập nhật thông tin</t>
+  </si>
+  <si>
+    <t>người nhận thông tin</t>
+  </si>
+  <si>
+    <t>người duyệt thông tin</t>
+  </si>
+  <si>
+    <t>admin PM</t>
+  </si>
+  <si>
+    <t>- Sale
+- Kế toán
+- ATZ</t>
+  </si>
+  <si>
+    <t>Ký hợp đồng- Chờ thanh toán</t>
+  </si>
+  <si>
+    <t>Kế toán</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>- Nhóm của PMH</t>
+  </si>
+  <si>
+    <t>Book tàu</t>
+  </si>
+  <si>
+    <t>ATZ</t>
+  </si>
+  <si>
+    <t>Hàng đã lên tàu</t>
+  </si>
+  <si>
+    <t>Hàng về cảng - chưa thông quan</t>
+  </si>
+  <si>
+    <t>Đã thông quan - chờ đổi lệnh</t>
+  </si>
+  <si>
+    <t>Đã đổi lệnh  - chờ kéo</t>
+  </si>
+  <si>
+    <t>Đã kết thúc</t>
+  </si>
+  <si>
+    <t>Ko phải la trang thai</t>
+  </si>
+  <si>
+    <t>Thanh toán HĐ - chờ NCC giao hàng</t>
+  </si>
+  <si>
+    <t>Đến ngày ETD tự động đổi trạng thái</t>
+  </si>
+  <si>
+    <t>PMH</t>
+  </si>
+  <si>
+    <t>Cập nhật lịch tàu (ETD, ETA, …)</t>
+  </si>
+  <si>
+    <t>- Sale
+-ATZ</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Cập nhật thông báo hàng sắp về cảng</t>
+  </si>
+  <si>
+    <t>- Sale
+-ATZ
+-Kế toán</t>
+  </si>
+  <si>
+    <t>Thanh toán phí hãng tàu</t>
+  </si>
+  <si>
+    <t>-ATZ</t>
+  </si>
+  <si>
+    <t>Tự chuyển khi tới ETA, cập nhật lại status nếu thực tế hàng về muộn hơn ETA</t>
+  </si>
+  <si>
+    <t>- Sale (lên KH kéo hoặc bán)
+-Kế toán (thuế)</t>
+  </si>
+  <si>
+    <t>Nộp thuế</t>
+  </si>
+  <si>
+    <t>Tự động đóng khi lịch kéo hoàn thành, ko có cont tồn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +271,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,8 +300,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,11 +315,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -201,6 +349,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -686,10 +855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,7 +883,313 @@
         <v>37</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="45.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>